--- a/DATA_goal/Junction_Flooding_323.xlsx
+++ b/DATA_goal/Junction_Flooding_323.xlsx
@@ -446,7 +446,7 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
@@ -469,7 +469,7 @@
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -655,103 +655,103 @@
         <v>45004.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.1</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
+        <v>48.94</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AB2" s="4" t="n">
         <v>4.89</v>
       </c>
-      <c r="U2" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.49</v>
-      </c>
       <c r="AC2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45004.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.61</v>
+        <v>16.07</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.24</v>
+        <v>12.39</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.41</v>
+        <v>34.13</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.9</v>
+        <v>28.98</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.22</v>
+        <v>12.23</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.26</v>
+        <v>42.62</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.86</v>
+        <v>18.62</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.85</v>
+        <v>8.51</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.32</v>
+        <v>13.22</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.41</v>
+        <v>14.11</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.44</v>
+        <v>14.39</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.89</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.22</v>
+        <v>12.21</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.76</v>
+        <v>17.56</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.14</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="S3" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>181.13</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>34.23</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>22.98</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>12.72</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.03</v>
       </c>
-      <c r="T3" s="4" t="n">
-        <v>18.11</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>3.8</v>
+        <v>38.03</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.68</v>
+        <v>6.8</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.4</v>
+        <v>14.01</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45004.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.75</v>
+        <v>17.46</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.33</v>
+        <v>13.28</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.74</v>
+        <v>37.39</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.14</v>
+        <v>31.44</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.34</v>
+        <v>13.43</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.23</v>
+        <v>52.3</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.06</v>
+        <v>20.59</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.43</v>
+        <v>14.28</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.52</v>
+        <v>15.23</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.59</v>
+        <v>15.85</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.3</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.34</v>
+        <v>13.39</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.93</v>
+        <v>19.28</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.12</v>
+        <v>11.15</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.55</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>19.85</v>
+        <v>198.45</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.76</v>
+        <v>37.58</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.23</v>
+        <v>12.29</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.54</v>
+        <v>25.38</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.37</v>
+        <v>13.71</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.78</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.65</v>
+        <v>26.46</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.61</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.36</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.11</v>
+        <v>11.15</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.6</v>
+        <v>15.98</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.72</v>
+        <v>47.19</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.32</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.54</v>
+        <v>15.41</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>45004.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.79</v>
+        <v>17.91</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.36</v>
+        <v>13.56</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.85</v>
+        <v>38.5</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.22</v>
+        <v>32.22</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.38</v>
+        <v>13.85</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.47</v>
+        <v>54.7</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.13</v>
+        <v>21.27</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.65</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.46</v>
+        <v>14.61</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.56</v>
+        <v>15.59</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.34</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.44</v>
+        <v>4.44</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.38</v>
+        <v>13.79</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.99</v>
+        <v>19.86</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.49</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>20.42</v>
+        <v>204.24</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.87</v>
+        <v>38.69</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.27</v>
+        <v>12.69</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.62</v>
+        <v>26.17</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.4</v>
+        <v>14.01</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.72</v>
+        <v>27.16</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.1</v>
+        <v>11.02</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.45</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.64</v>
+        <v>16.4</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.94</v>
+        <v>49.36</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.47</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.59</v>
+        <v>15.89</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_323.xlsx
+++ b/DATA_goal/Junction_Flooding_323.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,52 +658,52 @@
         <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>4.93</v>
+        <v>4.926</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.07</v>
+        <v>1.074</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.44</v>
+        <v>9.442</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3.41</v>
+        <v>3.413</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.19</v>
+        <v>8.191000000000001</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.53</v>
+        <v>4.526</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.1</v>
+        <v>2.102</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.54</v>
+        <v>4.543</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.17</v>
+        <v>5.171</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.877</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.45</v>
+        <v>3.454</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>4.77</v>
+        <v>4.766</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.49</v>
+        <v>2.485</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.21</v>
+        <v>1.205</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
@@ -712,46 +712,46 @@
         <v>48.94</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>9.632</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3</v>
+        <v>2.995</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.54</v>
+        <v>5.545</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.64</v>
+        <v>4.641</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.66</v>
+        <v>0.661</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.55</v>
+        <v>7.552</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.9</v>
+        <v>1.905</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.89</v>
+        <v>4.889</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.24</v>
+        <v>2.236</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>4.48</v>
+        <v>4.485</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.81</v>
+        <v>5.812</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.38</v>
+        <v>2.376</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.75</v>
+        <v>3.752</v>
       </c>
     </row>
     <row r="3">
@@ -759,64 +759,64 @@
         <v>45004.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>16.07</v>
+        <v>16.065</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12.39</v>
+        <v>12.392</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.92</v>
+        <v>0.917</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>34.13</v>
+        <v>34.133</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>28.98</v>
+        <v>28.984</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>12.23</v>
+        <v>12.233</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>42.62</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>18.62</v>
+        <v>18.625</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.51</v>
+        <v>8.513999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>13.22</v>
+        <v>13.221</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>14.11</v>
+        <v>14.107</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>14.39</v>
+        <v>14.393</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.89</v>
+        <v>3.888</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.21</v>
+        <v>12.211</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>17.56</v>
+        <v>17.562</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10.14</v>
+        <v>10.138</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.72</v>
+        <v>0.722</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.28</v>
+        <v>0.279</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>181.13</v>
+        <v>181.128</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>34.23</v>
+        <v>34.231</v>
       </c>
       <c r="V3" s="4" t="n">
         <v>11.17</v>
@@ -825,37 +825,37 @@
         <v>22.98</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>12.72</v>
+        <v>12.722</v>
       </c>
       <c r="Y3" s="4" t="n">
         <v>1.65</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>23.04</v>
+        <v>23.039</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>9.49</v>
+        <v>9.494999999999999</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.91</v>
+        <v>9.907999999999999</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.05</v>
+        <v>10.055</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>14.69</v>
+        <v>14.685</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.033</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>38.03</v>
+        <v>38.034</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.8</v>
+        <v>6.797</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>14.01</v>
+        <v>14.006</v>
       </c>
     </row>
     <row r="4">
@@ -863,91 +863,91 @@
         <v>45004.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>17.46</v>
+        <v>17.464</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.28</v>
+        <v>13.279</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.82</v>
+        <v>0.823</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>37.39</v>
+        <v>37.393</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>31.44</v>
+        <v>31.437</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.43</v>
+        <v>13.432</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>52.3</v>
+        <v>52.302</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>20.59</v>
+        <v>20.586</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>9.372</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>14.28</v>
+        <v>14.278</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>15.23</v>
+        <v>15.227</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>15.85</v>
+        <v>15.852</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.3</v>
+        <v>4.302</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.39</v>
+        <v>13.389</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>19.28</v>
+        <v>19.285</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.15</v>
+        <v>11.151</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.55</v>
+        <v>0.548</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.36</v>
+        <v>0.357</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>198.45</v>
+        <v>198.453</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>37.58</v>
+        <v>37.585</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>12.29</v>
+        <v>12.294</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>25.38</v>
+        <v>25.378</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>13.71</v>
+        <v>13.706</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.78</v>
+        <v>1.783</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>26.46</v>
+        <v>26.459</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.61</v>
+        <v>10.612</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.36</v>
+        <v>10.358</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.15</v>
+        <v>11.148</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>15.98</v>
+        <v>15.984</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>47.19</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.32</v>
+        <v>7.317</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>15.41</v>
+        <v>15.407</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>15.89</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45004.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>29.58</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>50.86</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>19.58</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>14.31</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>15.04</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>18.26</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>187.11</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>35.58</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>24.09</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>12.85</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>25.06</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.62</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>15.06</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>45.92</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>14.62</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_323.xlsx
+++ b/DATA_goal/Junction_Flooding_323.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>45004.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>17.91</v>
+        <v>17.912</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.56</v>
+        <v>13.556</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.77</v>
+        <v>0.774</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>38.5</v>
+        <v>38.498</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>32.22</v>
+        <v>32.223</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.85</v>
+        <v>13.848</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>54.7</v>
+        <v>54.697</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>21.27</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.65</v>
+        <v>9.654</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.61</v>
+        <v>14.612</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.59</v>
+        <v>15.594</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>16.34</v>
+        <v>16.344</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.44</v>
+        <v>4.442</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.79</v>
+        <v>13.794</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>19.86</v>
+        <v>19.858</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.49</v>
+        <v>11.489</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.46</v>
+        <v>0.457</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.4</v>
+        <v>0.399</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>204.24</v>
+        <v>204.241</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>38.69</v>
+        <v>38.689</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.69</v>
+        <v>12.686</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>26.17</v>
+        <v>26.174</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.01</v>
+        <v>14.012</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.83</v>
+        <v>1.828</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>27.16</v>
+        <v>27.162</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.02</v>
+        <v>11.021</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.45</v>
+        <v>10.453</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.53</v>
+        <v>11.531</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.4</v>
+        <v>16.402</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>49.36</v>
+        <v>49.356</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.47</v>
+        <v>7.472</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.89</v>
+        <v>15.892</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45004.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>29.58</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>50.86</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>19.58</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>14.31</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>18.26</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>187.11</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>35.58</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>12.85</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>25.06</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>15.06</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>45.92</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>14.62</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_323.xlsx
+++ b/DATA_goal/Junction_Flooding_323.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>45004.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>17.912</v>
+        <v>17.91</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.556</v>
+        <v>13.56</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.774</v>
+        <v>0.77</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>38.498</v>
+        <v>38.5</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>32.223</v>
+        <v>32.22</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.848</v>
+        <v>13.85</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>54.697</v>
+        <v>54.7</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>21.27</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.654</v>
+        <v>9.65</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.612</v>
+        <v>14.61</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.594</v>
+        <v>15.59</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>16.344</v>
+        <v>16.34</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.442</v>
+        <v>4.44</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.794</v>
+        <v>13.79</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>19.858</v>
+        <v>19.86</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.489</v>
+        <v>11.49</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.457</v>
+        <v>0.46</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.399</v>
+        <v>0.4</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>204.241</v>
+        <v>204.24</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>38.689</v>
+        <v>38.69</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.686</v>
+        <v>12.69</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>26.174</v>
+        <v>26.17</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.012</v>
+        <v>14.01</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.828</v>
+        <v>1.83</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>27.162</v>
+        <v>27.16</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.021</v>
+        <v>11.02</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.453</v>
+        <v>10.45</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.531</v>
+        <v>11.53</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.402</v>
+        <v>16.4</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>49.356</v>
+        <v>49.36</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.472</v>
+        <v>7.47</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.892</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45004.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>29.58</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>50.86</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>19.58</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>14.31</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>15.04</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>18.26</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>187.11</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>35.58</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>24.09</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>12.85</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>25.06</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.62</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>15.06</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>45.92</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>14.62</v>
+        <v>15.89</v>
       </c>
     </row>
   </sheetData>
